--- a/Code/Results/Cases/Case_4_65/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_65/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.003755615639679</v>
+        <v>1.040247152113656</v>
       </c>
       <c r="D2">
-        <v>1.020594416904972</v>
+        <v>1.041652388748826</v>
       </c>
       <c r="E2">
-        <v>1.020894524770086</v>
+        <v>1.053691823810803</v>
       </c>
       <c r="F2">
-        <v>1.026562543660824</v>
+        <v>1.060856199127629</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044096996170977</v>
+        <v>1.036238780645264</v>
       </c>
       <c r="J2">
-        <v>1.025824574214423</v>
+        <v>1.045334790692028</v>
       </c>
       <c r="K2">
-        <v>1.031774105162719</v>
+        <v>1.044431297440803</v>
       </c>
       <c r="L2">
-        <v>1.032070242586691</v>
+        <v>1.056437092122106</v>
       </c>
       <c r="M2">
-        <v>1.037663819420072</v>
+        <v>1.063581841326341</v>
       </c>
       <c r="N2">
-        <v>1.027281362773533</v>
+        <v>1.046819285996387</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.009072040528856</v>
+        <v>1.041363228920941</v>
       </c>
       <c r="D3">
-        <v>1.024486944927709</v>
+        <v>1.042480958939132</v>
       </c>
       <c r="E3">
-        <v>1.025856537684628</v>
+        <v>1.054791697451047</v>
       </c>
       <c r="F3">
-        <v>1.031801574716631</v>
+        <v>1.062020729773801</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045421271741904</v>
+        <v>1.036447934549956</v>
       </c>
       <c r="J3">
-        <v>1.029318411085811</v>
+        <v>1.046095574662389</v>
       </c>
       <c r="K3">
-        <v>1.034815811683651</v>
+        <v>1.045070492057994</v>
       </c>
       <c r="L3">
-        <v>1.036168932421241</v>
+        <v>1.057349326768156</v>
       </c>
       <c r="M3">
-        <v>1.042043096827673</v>
+        <v>1.064559996284495</v>
       </c>
       <c r="N3">
-        <v>1.030780161294024</v>
+        <v>1.04758115036725</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.012434335546491</v>
+        <v>1.04208553379342</v>
       </c>
       <c r="D4">
-        <v>1.026950496539361</v>
+        <v>1.043016956478672</v>
       </c>
       <c r="E4">
-        <v>1.029000293427134</v>
+        <v>1.055503870959546</v>
       </c>
       <c r="F4">
-        <v>1.035120737905342</v>
+        <v>1.062774784320758</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046247768286491</v>
+        <v>1.036581890282143</v>
       </c>
       <c r="J4">
-        <v>1.031525230613199</v>
+        <v>1.046587431556944</v>
       </c>
       <c r="K4">
-        <v>1.036734180014147</v>
+        <v>1.04548330457556</v>
       </c>
       <c r="L4">
-        <v>1.038760869653153</v>
+        <v>1.057939492770725</v>
       </c>
       <c r="M4">
-        <v>1.044812988478855</v>
+        <v>1.065192872156668</v>
       </c>
       <c r="N4">
-        <v>1.032990114758267</v>
+        <v>1.048073705755011</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.013829992880498</v>
+        <v>1.042389222224798</v>
       </c>
       <c r="D5">
-        <v>1.027973447832295</v>
+        <v>1.043242255373739</v>
       </c>
       <c r="E5">
-        <v>1.030306539044482</v>
+        <v>1.055803384258052</v>
       </c>
       <c r="F5">
-        <v>1.036499847272974</v>
+        <v>1.0630919149588</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046588147973006</v>
+        <v>1.036637874583791</v>
       </c>
       <c r="J5">
-        <v>1.032440545952328</v>
+        <v>1.046794107494334</v>
       </c>
       <c r="K5">
-        <v>1.037529145891121</v>
+        <v>1.045656661952568</v>
       </c>
       <c r="L5">
-        <v>1.039836662823038</v>
+        <v>1.058187572225359</v>
       </c>
       <c r="M5">
-        <v>1.045962767518802</v>
+        <v>1.065458920059114</v>
       </c>
       <c r="N5">
-        <v>1.033906729950166</v>
+        <v>1.048280675195938</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.014063304645008</v>
+        <v>1.042440214713822</v>
       </c>
       <c r="D6">
-        <v>1.028144473145842</v>
+        <v>1.043280082019795</v>
       </c>
       <c r="E6">
-        <v>1.030524979213414</v>
+        <v>1.055853680641809</v>
       </c>
       <c r="F6">
-        <v>1.036730471308123</v>
+        <v>1.063145169993176</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046644889616553</v>
+        <v>1.036647255199347</v>
       </c>
       <c r="J6">
-        <v>1.032593515831258</v>
+        <v>1.046828803392478</v>
       </c>
       <c r="K6">
-        <v>1.037661960346228</v>
+        <v>1.045685758333193</v>
       </c>
       <c r="L6">
-        <v>1.04001649610012</v>
+        <v>1.058229224318961</v>
       </c>
       <c r="M6">
-        <v>1.046154975932781</v>
+        <v>1.065503589910685</v>
       </c>
       <c r="N6">
-        <v>1.03405991706387</v>
+        <v>1.048315420366237</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.012453053544976</v>
+        <v>1.042089591568606</v>
       </c>
       <c r="D7">
-        <v>1.02696421464849</v>
+        <v>1.043019967069349</v>
       </c>
       <c r="E7">
-        <v>1.029017807180723</v>
+        <v>1.055507872616553</v>
       </c>
       <c r="F7">
-        <v>1.035139228662038</v>
+        <v>1.062779021339927</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046252344020013</v>
+        <v>1.036582639646643</v>
       </c>
       <c r="J7">
-        <v>1.031537509335768</v>
+        <v>1.046590193566452</v>
       </c>
       <c r="K7">
-        <v>1.036744847111144</v>
+        <v>1.045485621728087</v>
       </c>
       <c r="L7">
-        <v>1.038775298195745</v>
+        <v>1.057942807723764</v>
       </c>
       <c r="M7">
-        <v>1.044828408823388</v>
+        <v>1.065196427152987</v>
       </c>
       <c r="N7">
-        <v>1.033002410918031</v>
+        <v>1.048076471686889</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.005568911580646</v>
+        <v>1.040624309292877</v>
       </c>
       <c r="D8">
-        <v>1.021921638872193</v>
+        <v>1.041932437314174</v>
       </c>
       <c r="E8">
-        <v>1.02258573628993</v>
+        <v>1.054063431653748</v>
       </c>
       <c r="F8">
-        <v>1.028348196436984</v>
+        <v>1.061249649137317</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044550958431409</v>
+        <v>1.03630975102764</v>
       </c>
       <c r="J8">
-        <v>1.027016795687399</v>
+        <v>1.045591988492711</v>
       </c>
       <c r="K8">
-        <v>1.032812634440918</v>
+        <v>1.044647479601687</v>
       </c>
       <c r="L8">
-        <v>1.033468219319301</v>
+        <v>1.056745409154277</v>
       </c>
       <c r="M8">
-        <v>1.03915739117064</v>
+        <v>1.063912425072475</v>
       </c>
       <c r="N8">
-        <v>1.028475277337748</v>
+        <v>1.047076849047448</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9928052802377046</v>
+        <v>1.03804324813765</v>
       </c>
       <c r="D9">
-        <v>1.012590206717694</v>
+        <v>1.040014989681512</v>
       </c>
       <c r="E9">
-        <v>1.010707221804644</v>
+        <v>1.05152182066036</v>
       </c>
       <c r="F9">
-        <v>1.01580569077426</v>
+        <v>1.058558707934009</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041310551021787</v>
+        <v>1.035818315779816</v>
       </c>
       <c r="J9">
-        <v>1.018614686050644</v>
+        <v>1.043829791138343</v>
       </c>
       <c r="K9">
-        <v>1.025482266575775</v>
+        <v>1.04316452543417</v>
       </c>
       <c r="L9">
-        <v>1.023628937970566</v>
+        <v>1.054634581977514</v>
       </c>
       <c r="M9">
-        <v>1.02864743289383</v>
+        <v>1.061649410736712</v>
       </c>
       <c r="N9">
-        <v>1.020061235741573</v>
+        <v>1.04531214917071</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9838145334258405</v>
+        <v>1.036323135631786</v>
       </c>
       <c r="D10">
-        <v>1.006034591731476</v>
+        <v>1.038735978299049</v>
       </c>
       <c r="E10">
-        <v>1.002375064512965</v>
+        <v>1.049829868411293</v>
       </c>
       <c r="F10">
-        <v>1.007006653435542</v>
+        <v>1.05676741715381</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038972935943607</v>
+        <v>1.035483590663965</v>
       </c>
       <c r="J10">
-        <v>1.012685367832335</v>
+        <v>1.042652807980692</v>
       </c>
       <c r="K10">
-        <v>1.020295737918612</v>
+        <v>1.042171829942078</v>
       </c>
       <c r="L10">
-        <v>1.016701568440232</v>
+        <v>1.053226771459113</v>
       </c>
       <c r="M10">
-        <v>1.021250542569312</v>
+        <v>1.060140420984568</v>
       </c>
       <c r="N10">
-        <v>1.014123497211292</v>
+        <v>1.044133494561973</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.979793296015286</v>
+        <v>1.035578437946352</v>
       </c>
       <c r="D11">
-        <v>1.003107948663432</v>
+        <v>1.038181985282634</v>
       </c>
       <c r="E11">
-        <v>0.998657521781111</v>
+        <v>1.049097811736731</v>
       </c>
       <c r="F11">
-        <v>1.003080441836711</v>
+        <v>1.055992395301639</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037915099370383</v>
+        <v>1.03533696736881</v>
       </c>
       <c r="J11">
-        <v>1.010031546988456</v>
+        <v>1.042142639692459</v>
       </c>
       <c r="K11">
-        <v>1.017971490671686</v>
+        <v>1.041741018658918</v>
       </c>
       <c r="L11">
-        <v>1.013604799760067</v>
+        <v>1.052617029128767</v>
       </c>
       <c r="M11">
-        <v>1.017944498414367</v>
+        <v>1.059486932362811</v>
       </c>
       <c r="N11">
-        <v>1.011465907637417</v>
+        <v>1.043622601776254</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9782790663364529</v>
+        <v>1.035301841396609</v>
       </c>
       <c r="D12">
-        <v>1.00200683431655</v>
+        <v>1.03797618174516</v>
       </c>
       <c r="E12">
-        <v>0.9972590962874612</v>
+        <v>1.048825978365334</v>
       </c>
       <c r="F12">
-        <v>1.001603458537352</v>
+        <v>1.05570460999138</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037514982259324</v>
+        <v>1.035282251782993</v>
       </c>
       <c r="J12">
-        <v>1.009032017044671</v>
+        <v>1.041953060943185</v>
       </c>
       <c r="K12">
-        <v>1.017095687279858</v>
+        <v>1.04158085066976</v>
       </c>
       <c r="L12">
-        <v>1.012438996755539</v>
+        <v>1.052390520505053</v>
       </c>
       <c r="M12">
-        <v>1.016700003153201</v>
+        <v>1.059244184116304</v>
       </c>
       <c r="N12">
-        <v>1.010464958246465</v>
+        <v>1.043432753803411</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9786048264696277</v>
+        <v>1.035361171528286</v>
       </c>
       <c r="D13">
-        <v>1.002243675582067</v>
+        <v>1.038020328471835</v>
       </c>
       <c r="E13">
-        <v>0.9975598766411922</v>
+        <v>1.048884283705158</v>
       </c>
       <c r="F13">
-        <v>1.001921138486001</v>
+        <v>1.055766336750643</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03760113974553</v>
+        <v>1.035293999918106</v>
       </c>
       <c r="J13">
-        <v>1.009247056974679</v>
+        <v>1.04199372983359</v>
       </c>
       <c r="K13">
-        <v>1.01728412628051</v>
+        <v>1.041615213833236</v>
       </c>
       <c r="L13">
-        <v>1.012689783748273</v>
+        <v>1.052439108430006</v>
       </c>
       <c r="M13">
-        <v>1.016967714292631</v>
+        <v>1.059296255057682</v>
       </c>
       <c r="N13">
-        <v>1.010680303557839</v>
+        <v>1.043473480448305</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9796685567476799</v>
+        <v>1.035555574041884</v>
       </c>
       <c r="D14">
-        <v>1.003017221285341</v>
+        <v>1.038164974025237</v>
       </c>
       <c r="E14">
-        <v>0.998542292431248</v>
+        <v>1.049075340173098</v>
       </c>
       <c r="F14">
-        <v>1.002958740705984</v>
+        <v>1.055968604998795</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037882174258124</v>
+        <v>1.035332449725898</v>
       </c>
       <c r="J14">
-        <v>1.009949211588251</v>
+        <v>1.042126970678547</v>
       </c>
       <c r="K14">
-        <v>1.017899355156276</v>
+        <v>1.041727782091801</v>
       </c>
       <c r="L14">
-        <v>1.013508756466326</v>
+        <v>1.052598306330743</v>
       </c>
       <c r="M14">
-        <v>1.017841970309214</v>
+        <v>1.059466866995051</v>
       </c>
       <c r="N14">
-        <v>1.0113834553115</v>
+        <v>1.043606910510545</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9803211903167991</v>
+        <v>1.035675354111162</v>
       </c>
       <c r="D15">
-        <v>1.003491944152179</v>
+        <v>1.038254091499446</v>
       </c>
       <c r="E15">
-        <v>0.9991452296063723</v>
+        <v>1.049193067625549</v>
       </c>
       <c r="F15">
-        <v>1.003595538833451</v>
+        <v>1.056093241354716</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038054365761301</v>
+        <v>1.035356106374692</v>
       </c>
       <c r="J15">
-        <v>1.010379980661898</v>
+        <v>1.042209054210414</v>
       </c>
       <c r="K15">
-        <v>1.018276743389501</v>
+        <v>1.041797119827553</v>
       </c>
       <c r="L15">
-        <v>1.014011266302181</v>
+        <v>1.052696390326689</v>
       </c>
       <c r="M15">
-        <v>1.018378413147109</v>
+        <v>1.059571984838753</v>
       </c>
       <c r="N15">
-        <v>1.011814836126641</v>
+        <v>1.043689110610442</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9840786001936473</v>
+        <v>1.036372561252631</v>
       </c>
       <c r="D16">
-        <v>1.006226901742438</v>
+        <v>1.038772741359874</v>
       </c>
       <c r="E16">
-        <v>1.002619384228852</v>
+        <v>1.049878464561406</v>
       </c>
       <c r="F16">
-        <v>1.00726467877872</v>
+        <v>1.05681886578384</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039042151786562</v>
+        <v>1.035493286066088</v>
       </c>
       <c r="J16">
-        <v>1.012859606018264</v>
+        <v>1.042686655037646</v>
       </c>
       <c r="K16">
-        <v>1.020448280299128</v>
+        <v>1.042200401071293</v>
       </c>
       <c r="L16">
-        <v>1.016904966187316</v>
+        <v>1.053267234825727</v>
       </c>
       <c r="M16">
-        <v>1.021467698359828</v>
+        <v>1.060183789012014</v>
       </c>
       <c r="N16">
-        <v>1.01429798283543</v>
+        <v>1.044167389685631</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9864003192377541</v>
+        <v>1.03680993289017</v>
       </c>
       <c r="D17">
-        <v>1.007918355639334</v>
+        <v>1.039098030545074</v>
       </c>
       <c r="E17">
-        <v>1.004768529206688</v>
+        <v>1.050308548128826</v>
       </c>
       <c r="F17">
-        <v>1.009534342412144</v>
+        <v>1.05727419603843</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039649319599627</v>
+        <v>1.035578884112446</v>
       </c>
       <c r="J17">
-        <v>1.014391334657275</v>
+        <v>1.042986100104684</v>
       </c>
       <c r="K17">
-        <v>1.021788957381465</v>
+        <v>1.042453109601185</v>
       </c>
       <c r="L17">
-        <v>1.018693462252389</v>
+        <v>1.053625269713752</v>
       </c>
       <c r="M17">
-        <v>1.023377240046992</v>
+        <v>1.060567534173372</v>
       </c>
       <c r="N17">
-        <v>1.015831886704801</v>
+        <v>1.044467259999011</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9877422646298939</v>
+        <v>1.03706505624544</v>
       </c>
       <c r="D18">
-        <v>1.008896517367965</v>
+        <v>1.039287749560546</v>
       </c>
       <c r="E18">
-        <v>1.006011586411948</v>
+        <v>1.050559463612045</v>
       </c>
       <c r="F18">
-        <v>1.010847073440592</v>
+        <v>1.057539842229576</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039999091283001</v>
+        <v>1.035628649415647</v>
       </c>
       <c r="J18">
-        <v>1.015276488774473</v>
+        <v>1.043160710541921</v>
       </c>
       <c r="K18">
-        <v>1.022563432228353</v>
+        <v>1.04260041686197</v>
       </c>
       <c r="L18">
-        <v>1.019727352637319</v>
+        <v>1.053834090860709</v>
       </c>
       <c r="M18">
-        <v>1.02448116267757</v>
+        <v>1.060791357962216</v>
       </c>
       <c r="N18">
-        <v>1.016718297842373</v>
+        <v>1.044642118403096</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9881977892349708</v>
+        <v>1.037152048763672</v>
       </c>
       <c r="D19">
-        <v>1.009228637932414</v>
+        <v>1.039352436013464</v>
       </c>
       <c r="E19">
-        <v>1.006433686938307</v>
+        <v>1.050645028655343</v>
       </c>
       <c r="F19">
-        <v>1.011292827390955</v>
+        <v>1.057630430871962</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040117621303321</v>
+        <v>1.035645590519973</v>
       </c>
       <c r="J19">
-        <v>1.015576922799543</v>
+        <v>1.04322023958309</v>
       </c>
       <c r="K19">
-        <v>1.022826252695488</v>
+        <v>1.042650629001376</v>
       </c>
       <c r="L19">
-        <v>1.020078330416719</v>
+        <v>1.053905291022622</v>
       </c>
       <c r="M19">
-        <v>1.024855924460728</v>
+        <v>1.060867674703562</v>
       </c>
       <c r="N19">
-        <v>1.017019158518219</v>
+        <v>1.044701731982332</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9861524993880013</v>
+        <v>1.036763005831476</v>
       </c>
       <c r="D20">
-        <v>1.007737756690986</v>
+        <v>1.039063131816872</v>
       </c>
       <c r="E20">
-        <v>1.004539040210072</v>
+        <v>1.050262398545586</v>
       </c>
       <c r="F20">
-        <v>1.009291987805799</v>
+        <v>1.057225337234982</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039584631504227</v>
+        <v>1.035569717069438</v>
       </c>
       <c r="J20">
-        <v>1.014227856422566</v>
+        <v>1.042953977740469</v>
       </c>
       <c r="K20">
-        <v>1.021645897980393</v>
+        <v>1.042426006023901</v>
       </c>
       <c r="L20">
-        <v>1.018502542880355</v>
+        <v>1.053586857466495</v>
       </c>
       <c r="M20">
-        <v>1.023173393175925</v>
+        <v>1.060526362808575</v>
       </c>
       <c r="N20">
-        <v>1.015668176312247</v>
+        <v>1.044435092017354</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9793558933874076</v>
+        <v>1.035498326877126</v>
       </c>
       <c r="D21">
-        <v>1.002789825423698</v>
+        <v>1.038122380228365</v>
       </c>
       <c r="E21">
-        <v>0.9982534895471452</v>
+        <v>1.049019076461135</v>
       </c>
       <c r="F21">
-        <v>1.002653716352784</v>
+        <v>1.055909039498156</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037799617885621</v>
+        <v>1.03532113420442</v>
       </c>
       <c r="J21">
-        <v>1.009742831829277</v>
+        <v>1.042087736769197</v>
       </c>
       <c r="K21">
-        <v>1.01771853576948</v>
+        <v>1.041694637562798</v>
       </c>
       <c r="L21">
-        <v>1.0132680258218</v>
+        <v>1.052551427160389</v>
       </c>
       <c r="M21">
-        <v>1.017584987074058</v>
+        <v>1.059416626408218</v>
       </c>
       <c r="N21">
-        <v>1.011176782469596</v>
+        <v>1.043567620884544</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9749628938332117</v>
+        <v>1.034703272757409</v>
       </c>
       <c r="D22">
-        <v>0.9995972490025685</v>
+        <v>1.03753074275643</v>
       </c>
       <c r="E22">
-        <v>0.9941992820661103</v>
+        <v>1.048237842456731</v>
       </c>
       <c r="F22">
-        <v>0.9983716306827168</v>
+        <v>1.055081964635747</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036635526233602</v>
+        <v>1.035163375554901</v>
       </c>
       <c r="J22">
-        <v>1.006842726370051</v>
+        <v>1.041542636353164</v>
       </c>
       <c r="K22">
-        <v>1.01517668869325</v>
+        <v>1.04123395532025</v>
       </c>
       <c r="L22">
-        <v>1.009886534860469</v>
+        <v>1.051900276721745</v>
       </c>
       <c r="M22">
-        <v>1.013975415053935</v>
+        <v>1.058718812854276</v>
       </c>
       <c r="N22">
-        <v>1.008272558527971</v>
+        <v>1.043021746363396</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9773035188281076</v>
+        <v>1.035124736888478</v>
       </c>
       <c r="D23">
-        <v>1.001297717252394</v>
+        <v>1.037844395131787</v>
       </c>
       <c r="E23">
-        <v>0.9963585730350718</v>
+        <v>1.048651942932874</v>
       </c>
       <c r="F23">
-        <v>1.000652328714548</v>
+        <v>1.055520362296188</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03725671272872</v>
+        <v>1.035247145238761</v>
       </c>
       <c r="J23">
-        <v>1.008388015386735</v>
+        <v>1.041831648160201</v>
       </c>
       <c r="K23">
-        <v>1.016531293319753</v>
+        <v>1.041478251535379</v>
       </c>
       <c r="L23">
-        <v>1.011688021068974</v>
+        <v>1.052245476778867</v>
       </c>
       <c r="M23">
-        <v>1.015898361761739</v>
+        <v>1.05908874461822</v>
       </c>
       <c r="N23">
-        <v>1.009820042032306</v>
+        <v>1.043311168600349</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9862645163451562</v>
+        <v>1.036784210112298</v>
       </c>
       <c r="D24">
-        <v>1.00781938758873</v>
+        <v>1.039078901101313</v>
       </c>
       <c r="E24">
-        <v>1.004642768785916</v>
+        <v>1.050283251385533</v>
       </c>
       <c r="F24">
-        <v>1.009401531715857</v>
+        <v>1.057247414240238</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039613874777984</v>
+        <v>1.035573859763893</v>
       </c>
       <c r="J24">
-        <v>1.014301750720132</v>
+        <v>1.042968492610947</v>
       </c>
       <c r="K24">
-        <v>1.021710563552411</v>
+        <v>1.042438253252106</v>
       </c>
       <c r="L24">
-        <v>1.018588839826395</v>
+        <v>1.053604214352312</v>
       </c>
       <c r="M24">
-        <v>1.023265533264301</v>
+        <v>1.060544966401436</v>
       </c>
       <c r="N24">
-        <v>1.015742175548191</v>
+        <v>1.044449627500613</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9961854954790385</v>
+        <v>1.038710406081347</v>
       </c>
       <c r="D25">
-        <v>1.015058868289053</v>
+        <v>1.040510822535422</v>
       </c>
       <c r="E25">
-        <v>1.013847246779155</v>
+        <v>1.052178453968251</v>
       </c>
       <c r="F25">
-        <v>1.01912140237886</v>
+        <v>1.059253908315233</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042178407993357</v>
+        <v>1.035946615681246</v>
       </c>
       <c r="J25">
-        <v>1.020841918391399</v>
+        <v>1.044285745650272</v>
       </c>
       <c r="K25">
-        <v>1.027427827373917</v>
+        <v>1.043548620268348</v>
       </c>
       <c r="L25">
-        <v>1.026234338919775</v>
+        <v>1.055180384670186</v>
       </c>
       <c r="M25">
-        <v>1.031429961653445</v>
+        <v>1.062234508083593</v>
       </c>
       <c r="N25">
-        <v>1.02229163100772</v>
+        <v>1.045768751190344</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_65/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_65/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040247152113656</v>
+        <v>1.003755615639678</v>
       </c>
       <c r="D2">
-        <v>1.041652388748826</v>
+        <v>1.020594416904972</v>
       </c>
       <c r="E2">
-        <v>1.053691823810803</v>
+        <v>1.020894524770086</v>
       </c>
       <c r="F2">
-        <v>1.060856199127629</v>
+        <v>1.026562543660824</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036238780645264</v>
+        <v>1.044096996170977</v>
       </c>
       <c r="J2">
-        <v>1.045334790692028</v>
+        <v>1.025824574214423</v>
       </c>
       <c r="K2">
-        <v>1.044431297440803</v>
+        <v>1.031774105162719</v>
       </c>
       <c r="L2">
-        <v>1.056437092122106</v>
+        <v>1.03207024258669</v>
       </c>
       <c r="M2">
-        <v>1.063581841326341</v>
+        <v>1.037663819420072</v>
       </c>
       <c r="N2">
-        <v>1.046819285996387</v>
+        <v>1.027281362773533</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041363228920941</v>
+        <v>1.009072040528855</v>
       </c>
       <c r="D3">
-        <v>1.042480958939132</v>
+        <v>1.024486944927708</v>
       </c>
       <c r="E3">
-        <v>1.054791697451047</v>
+        <v>1.025856537684627</v>
       </c>
       <c r="F3">
-        <v>1.062020729773801</v>
+        <v>1.03180157471663</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036447934549956</v>
+        <v>1.045421271741904</v>
       </c>
       <c r="J3">
-        <v>1.046095574662389</v>
+        <v>1.02931841108581</v>
       </c>
       <c r="K3">
-        <v>1.045070492057994</v>
+        <v>1.03481581168365</v>
       </c>
       <c r="L3">
-        <v>1.057349326768156</v>
+        <v>1.03616893242124</v>
       </c>
       <c r="M3">
-        <v>1.064559996284495</v>
+        <v>1.042043096827672</v>
       </c>
       <c r="N3">
-        <v>1.04758115036725</v>
+        <v>1.030780161294024</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04208553379342</v>
+        <v>1.012434335546491</v>
       </c>
       <c r="D4">
-        <v>1.043016956478672</v>
+        <v>1.026950496539362</v>
       </c>
       <c r="E4">
-        <v>1.055503870959546</v>
+        <v>1.029000293427135</v>
       </c>
       <c r="F4">
-        <v>1.062774784320758</v>
+        <v>1.035120737905343</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036581890282143</v>
+        <v>1.046247768286491</v>
       </c>
       <c r="J4">
-        <v>1.046587431556944</v>
+        <v>1.031525230613199</v>
       </c>
       <c r="K4">
-        <v>1.04548330457556</v>
+        <v>1.036734180014147</v>
       </c>
       <c r="L4">
-        <v>1.057939492770725</v>
+        <v>1.038760869653153</v>
       </c>
       <c r="M4">
-        <v>1.065192872156668</v>
+        <v>1.044812988478855</v>
       </c>
       <c r="N4">
-        <v>1.048073705755011</v>
+        <v>1.032990114758268</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.042389222224798</v>
+        <v>1.013829992880498</v>
       </c>
       <c r="D5">
-        <v>1.043242255373739</v>
+        <v>1.027973447832296</v>
       </c>
       <c r="E5">
-        <v>1.055803384258052</v>
+        <v>1.030306539044482</v>
       </c>
       <c r="F5">
-        <v>1.0630919149588</v>
+        <v>1.036499847272975</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036637874583791</v>
+        <v>1.046588147973006</v>
       </c>
       <c r="J5">
-        <v>1.046794107494334</v>
+        <v>1.032440545952329</v>
       </c>
       <c r="K5">
-        <v>1.045656661952568</v>
+        <v>1.037529145891121</v>
       </c>
       <c r="L5">
-        <v>1.058187572225359</v>
+        <v>1.039836662823038</v>
       </c>
       <c r="M5">
-        <v>1.065458920059114</v>
+        <v>1.045962767518802</v>
       </c>
       <c r="N5">
-        <v>1.048280675195938</v>
+        <v>1.033906729950167</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042440214713822</v>
+        <v>1.014063304645009</v>
       </c>
       <c r="D6">
-        <v>1.043280082019795</v>
+        <v>1.028144473145843</v>
       </c>
       <c r="E6">
-        <v>1.055853680641809</v>
+        <v>1.030524979213415</v>
       </c>
       <c r="F6">
-        <v>1.063145169993176</v>
+        <v>1.036730471308124</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036647255199347</v>
+        <v>1.046644889616554</v>
       </c>
       <c r="J6">
-        <v>1.046828803392478</v>
+        <v>1.032593515831258</v>
       </c>
       <c r="K6">
-        <v>1.045685758333193</v>
+        <v>1.037661960346229</v>
       </c>
       <c r="L6">
-        <v>1.058229224318961</v>
+        <v>1.040016496100121</v>
       </c>
       <c r="M6">
-        <v>1.065503589910685</v>
+        <v>1.046154975932782</v>
       </c>
       <c r="N6">
-        <v>1.048315420366237</v>
+        <v>1.034059917063871</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.042089591568606</v>
+        <v>1.012453053544976</v>
       </c>
       <c r="D7">
-        <v>1.043019967069349</v>
+        <v>1.02696421464849</v>
       </c>
       <c r="E7">
-        <v>1.055507872616553</v>
+        <v>1.029017807180723</v>
       </c>
       <c r="F7">
-        <v>1.062779021339927</v>
+        <v>1.035139228662038</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036582639646643</v>
+        <v>1.046252344020013</v>
       </c>
       <c r="J7">
-        <v>1.046590193566452</v>
+        <v>1.031537509335769</v>
       </c>
       <c r="K7">
-        <v>1.045485621728087</v>
+        <v>1.036744847111144</v>
       </c>
       <c r="L7">
-        <v>1.057942807723764</v>
+        <v>1.038775298195745</v>
       </c>
       <c r="M7">
-        <v>1.065196427152987</v>
+        <v>1.044828408823389</v>
       </c>
       <c r="N7">
-        <v>1.048076471686889</v>
+        <v>1.033002410918031</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040624309292877</v>
+        <v>1.005568911580646</v>
       </c>
       <c r="D8">
-        <v>1.041932437314174</v>
+        <v>1.021921638872193</v>
       </c>
       <c r="E8">
-        <v>1.054063431653748</v>
+        <v>1.022585736289929</v>
       </c>
       <c r="F8">
-        <v>1.061249649137317</v>
+        <v>1.028348196436984</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03630975102764</v>
+        <v>1.044550958431409</v>
       </c>
       <c r="J8">
-        <v>1.045591988492711</v>
+        <v>1.027016795687399</v>
       </c>
       <c r="K8">
-        <v>1.044647479601687</v>
+        <v>1.032812634440918</v>
       </c>
       <c r="L8">
-        <v>1.056745409154277</v>
+        <v>1.0334682193193</v>
       </c>
       <c r="M8">
-        <v>1.063912425072475</v>
+        <v>1.03915739117064</v>
       </c>
       <c r="N8">
-        <v>1.047076849047448</v>
+        <v>1.028475277337748</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03804324813765</v>
+        <v>0.9928052802377046</v>
       </c>
       <c r="D9">
-        <v>1.040014989681512</v>
+        <v>1.012590206717694</v>
       </c>
       <c r="E9">
-        <v>1.05152182066036</v>
+        <v>1.010707221804644</v>
       </c>
       <c r="F9">
-        <v>1.058558707934009</v>
+        <v>1.015805690774259</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035818315779816</v>
+        <v>1.041310551021787</v>
       </c>
       <c r="J9">
-        <v>1.043829791138343</v>
+        <v>1.018614686050644</v>
       </c>
       <c r="K9">
-        <v>1.04316452543417</v>
+        <v>1.025482266575775</v>
       </c>
       <c r="L9">
-        <v>1.054634581977514</v>
+        <v>1.023628937970566</v>
       </c>
       <c r="M9">
-        <v>1.061649410736712</v>
+        <v>1.02864743289383</v>
       </c>
       <c r="N9">
-        <v>1.04531214917071</v>
+        <v>1.020061235741573</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.036323135631786</v>
+        <v>0.983814533425841</v>
       </c>
       <c r="D10">
-        <v>1.038735978299049</v>
+        <v>1.006034591731476</v>
       </c>
       <c r="E10">
-        <v>1.049829868411293</v>
+        <v>1.002375064512965</v>
       </c>
       <c r="F10">
-        <v>1.05676741715381</v>
+        <v>1.007006653435542</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035483590663965</v>
+        <v>1.038972935943607</v>
       </c>
       <c r="J10">
-        <v>1.042652807980692</v>
+        <v>1.012685367832335</v>
       </c>
       <c r="K10">
-        <v>1.042171829942078</v>
+        <v>1.020295737918612</v>
       </c>
       <c r="L10">
-        <v>1.053226771459113</v>
+        <v>1.016701568440233</v>
       </c>
       <c r="M10">
-        <v>1.060140420984568</v>
+        <v>1.021250542569312</v>
       </c>
       <c r="N10">
-        <v>1.044133494561973</v>
+        <v>1.014123497211292</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.035578437946352</v>
+        <v>0.9797932960152869</v>
       </c>
       <c r="D11">
-        <v>1.038181985282634</v>
+        <v>1.003107948663433</v>
       </c>
       <c r="E11">
-        <v>1.049097811736731</v>
+        <v>0.9986575217811119</v>
       </c>
       <c r="F11">
-        <v>1.055992395301639</v>
+        <v>1.003080441836712</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03533696736881</v>
+        <v>1.037915099370383</v>
       </c>
       <c r="J11">
-        <v>1.042142639692459</v>
+        <v>1.010031546988457</v>
       </c>
       <c r="K11">
-        <v>1.041741018658918</v>
+        <v>1.017971490671687</v>
       </c>
       <c r="L11">
-        <v>1.052617029128767</v>
+        <v>1.013604799760068</v>
       </c>
       <c r="M11">
-        <v>1.059486932362811</v>
+        <v>1.017944498414368</v>
       </c>
       <c r="N11">
-        <v>1.043622601776254</v>
+        <v>1.011465907637418</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.035301841396609</v>
+        <v>0.9782790663364523</v>
       </c>
       <c r="D12">
-        <v>1.03797618174516</v>
+        <v>1.002006834316549</v>
       </c>
       <c r="E12">
-        <v>1.048825978365334</v>
+        <v>0.9972590962874602</v>
       </c>
       <c r="F12">
-        <v>1.05570460999138</v>
+        <v>1.001603458537351</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035282251782993</v>
+        <v>1.037514982259324</v>
       </c>
       <c r="J12">
-        <v>1.041953060943185</v>
+        <v>1.009032017044671</v>
       </c>
       <c r="K12">
-        <v>1.04158085066976</v>
+        <v>1.017095687279858</v>
       </c>
       <c r="L12">
-        <v>1.052390520505053</v>
+        <v>1.012438996755539</v>
       </c>
       <c r="M12">
-        <v>1.059244184116304</v>
+        <v>1.016700003153199</v>
       </c>
       <c r="N12">
-        <v>1.043432753803411</v>
+        <v>1.010464958246464</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.035361171528286</v>
+        <v>0.9786048264696264</v>
       </c>
       <c r="D13">
-        <v>1.038020328471835</v>
+        <v>1.002243675582066</v>
       </c>
       <c r="E13">
-        <v>1.048884283705158</v>
+        <v>0.9975598766411908</v>
       </c>
       <c r="F13">
-        <v>1.055766336750643</v>
+        <v>1.001921138485999</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035293999918106</v>
+        <v>1.03760113974553</v>
       </c>
       <c r="J13">
-        <v>1.04199372983359</v>
+        <v>1.009247056974678</v>
       </c>
       <c r="K13">
-        <v>1.041615213833236</v>
+        <v>1.017284126280509</v>
       </c>
       <c r="L13">
-        <v>1.052439108430006</v>
+        <v>1.012689783748272</v>
       </c>
       <c r="M13">
-        <v>1.059296255057682</v>
+        <v>1.01696771429263</v>
       </c>
       <c r="N13">
-        <v>1.043473480448305</v>
+        <v>1.010680303557838</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.035555574041884</v>
+        <v>0.9796685567476803</v>
       </c>
       <c r="D14">
-        <v>1.038164974025237</v>
+        <v>1.003017221285341</v>
       </c>
       <c r="E14">
-        <v>1.049075340173098</v>
+        <v>0.998542292431248</v>
       </c>
       <c r="F14">
-        <v>1.055968604998795</v>
+        <v>1.002958740705985</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035332449725898</v>
+        <v>1.037882174258124</v>
       </c>
       <c r="J14">
-        <v>1.042126970678547</v>
+        <v>1.009949211588251</v>
       </c>
       <c r="K14">
-        <v>1.041727782091801</v>
+        <v>1.017899355156276</v>
       </c>
       <c r="L14">
-        <v>1.052598306330743</v>
+        <v>1.013508756466327</v>
       </c>
       <c r="M14">
-        <v>1.059466866995051</v>
+        <v>1.017841970309215</v>
       </c>
       <c r="N14">
-        <v>1.043606910510545</v>
+        <v>1.0113834553115</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035675354111162</v>
+        <v>0.9803211903167978</v>
       </c>
       <c r="D15">
-        <v>1.038254091499446</v>
+        <v>1.003491944152178</v>
       </c>
       <c r="E15">
-        <v>1.049193067625549</v>
+        <v>0.9991452296063708</v>
       </c>
       <c r="F15">
-        <v>1.056093241354716</v>
+        <v>1.00359553883345</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035356106374692</v>
+        <v>1.038054365761301</v>
       </c>
       <c r="J15">
-        <v>1.042209054210414</v>
+        <v>1.010379980661896</v>
       </c>
       <c r="K15">
-        <v>1.041797119827553</v>
+        <v>1.0182767433895</v>
       </c>
       <c r="L15">
-        <v>1.052696390326689</v>
+        <v>1.014011266302179</v>
       </c>
       <c r="M15">
-        <v>1.059571984838753</v>
+        <v>1.018378413147108</v>
       </c>
       <c r="N15">
-        <v>1.043689110610442</v>
+        <v>1.01181483612664</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.036372561252631</v>
+        <v>0.9840786001936477</v>
       </c>
       <c r="D16">
-        <v>1.038772741359874</v>
+        <v>1.006226901742438</v>
       </c>
       <c r="E16">
-        <v>1.049878464561406</v>
+        <v>1.002619384228852</v>
       </c>
       <c r="F16">
-        <v>1.05681886578384</v>
+        <v>1.00726467877872</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035493286066088</v>
+        <v>1.039042151786563</v>
       </c>
       <c r="J16">
-        <v>1.042686655037646</v>
+        <v>1.012859606018264</v>
       </c>
       <c r="K16">
-        <v>1.042200401071293</v>
+        <v>1.020448280299128</v>
       </c>
       <c r="L16">
-        <v>1.053267234825727</v>
+        <v>1.016904966187316</v>
       </c>
       <c r="M16">
-        <v>1.060183789012014</v>
+        <v>1.021467698359828</v>
       </c>
       <c r="N16">
-        <v>1.044167389685631</v>
+        <v>1.01429798283543</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.03680993289017</v>
+        <v>0.9864003192377536</v>
       </c>
       <c r="D17">
-        <v>1.039098030545074</v>
+        <v>1.007918355639334</v>
       </c>
       <c r="E17">
-        <v>1.050308548128826</v>
+        <v>1.004768529206687</v>
       </c>
       <c r="F17">
-        <v>1.05727419603843</v>
+        <v>1.009534342412143</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035578884112446</v>
+        <v>1.039649319599627</v>
       </c>
       <c r="J17">
-        <v>1.042986100104684</v>
+        <v>1.014391334657274</v>
       </c>
       <c r="K17">
-        <v>1.042453109601185</v>
+        <v>1.021788957381465</v>
       </c>
       <c r="L17">
-        <v>1.053625269713752</v>
+        <v>1.018693462252388</v>
       </c>
       <c r="M17">
-        <v>1.060567534173372</v>
+        <v>1.023377240046991</v>
       </c>
       <c r="N17">
-        <v>1.044467259999011</v>
+        <v>1.0158318867048</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.03706505624544</v>
+        <v>0.987742264629894</v>
       </c>
       <c r="D18">
-        <v>1.039287749560546</v>
+        <v>1.008896517367966</v>
       </c>
       <c r="E18">
-        <v>1.050559463612045</v>
+        <v>1.006011586411948</v>
       </c>
       <c r="F18">
-        <v>1.057539842229576</v>
+        <v>1.010847073440592</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035628649415647</v>
+        <v>1.039999091283001</v>
       </c>
       <c r="J18">
-        <v>1.043160710541921</v>
+        <v>1.015276488774473</v>
       </c>
       <c r="K18">
-        <v>1.04260041686197</v>
+        <v>1.022563432228354</v>
       </c>
       <c r="L18">
-        <v>1.053834090860709</v>
+        <v>1.019727352637319</v>
       </c>
       <c r="M18">
-        <v>1.060791357962216</v>
+        <v>1.02448116267757</v>
       </c>
       <c r="N18">
-        <v>1.044642118403096</v>
+        <v>1.016718297842373</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.037152048763672</v>
+        <v>0.9881977892349705</v>
       </c>
       <c r="D19">
-        <v>1.039352436013464</v>
+        <v>1.009228637932414</v>
       </c>
       <c r="E19">
-        <v>1.050645028655343</v>
+        <v>1.006433686938306</v>
       </c>
       <c r="F19">
-        <v>1.057630430871962</v>
+        <v>1.011292827390954</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035645590519973</v>
+        <v>1.040117621303321</v>
       </c>
       <c r="J19">
-        <v>1.04322023958309</v>
+        <v>1.015576922799542</v>
       </c>
       <c r="K19">
-        <v>1.042650629001376</v>
+        <v>1.022826252695487</v>
       </c>
       <c r="L19">
-        <v>1.053905291022622</v>
+        <v>1.020078330416718</v>
       </c>
       <c r="M19">
-        <v>1.060867674703562</v>
+        <v>1.024855924460727</v>
       </c>
       <c r="N19">
-        <v>1.044701731982332</v>
+        <v>1.017019158518219</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.036763005831476</v>
+        <v>0.9861524993880019</v>
       </c>
       <c r="D20">
-        <v>1.039063131816872</v>
+        <v>1.007737756690987</v>
       </c>
       <c r="E20">
-        <v>1.050262398545586</v>
+        <v>1.004539040210072</v>
       </c>
       <c r="F20">
-        <v>1.057225337234982</v>
+        <v>1.0092919878058</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035569717069438</v>
+        <v>1.039584631504227</v>
       </c>
       <c r="J20">
-        <v>1.042953977740469</v>
+        <v>1.014227856422566</v>
       </c>
       <c r="K20">
-        <v>1.042426006023901</v>
+        <v>1.021645897980393</v>
       </c>
       <c r="L20">
-        <v>1.053586857466495</v>
+        <v>1.018502542880356</v>
       </c>
       <c r="M20">
-        <v>1.060526362808575</v>
+        <v>1.023173393175926</v>
       </c>
       <c r="N20">
-        <v>1.044435092017354</v>
+        <v>1.015668176312247</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.035498326877126</v>
+        <v>0.9793558933874075</v>
       </c>
       <c r="D21">
-        <v>1.038122380228365</v>
+        <v>1.002789825423698</v>
       </c>
       <c r="E21">
-        <v>1.049019076461135</v>
+        <v>0.998253489547145</v>
       </c>
       <c r="F21">
-        <v>1.055909039498156</v>
+        <v>1.002653716352783</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03532113420442</v>
+        <v>1.037799617885621</v>
       </c>
       <c r="J21">
-        <v>1.042087736769197</v>
+        <v>1.009742831829276</v>
       </c>
       <c r="K21">
-        <v>1.041694637562798</v>
+        <v>1.01771853576948</v>
       </c>
       <c r="L21">
-        <v>1.052551427160389</v>
+        <v>1.0132680258218</v>
       </c>
       <c r="M21">
-        <v>1.059416626408218</v>
+        <v>1.017584987074058</v>
       </c>
       <c r="N21">
-        <v>1.043567620884544</v>
+        <v>1.011176782469596</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034703272757409</v>
+        <v>0.974962893833211</v>
       </c>
       <c r="D22">
-        <v>1.03753074275643</v>
+        <v>0.9995972490025679</v>
       </c>
       <c r="E22">
-        <v>1.048237842456731</v>
+        <v>0.9941992820661096</v>
       </c>
       <c r="F22">
-        <v>1.055081964635747</v>
+        <v>0.9983716306827164</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035163375554901</v>
+        <v>1.036635526233602</v>
       </c>
       <c r="J22">
-        <v>1.041542636353164</v>
+        <v>1.006842726370051</v>
       </c>
       <c r="K22">
-        <v>1.04123395532025</v>
+        <v>1.015176688693249</v>
       </c>
       <c r="L22">
-        <v>1.051900276721745</v>
+        <v>1.009886534860468</v>
       </c>
       <c r="M22">
-        <v>1.058718812854276</v>
+        <v>1.013975415053934</v>
       </c>
       <c r="N22">
-        <v>1.043021746363396</v>
+        <v>1.008272558527971</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.035124736888478</v>
+        <v>0.9773035188281086</v>
       </c>
       <c r="D23">
-        <v>1.037844395131787</v>
+        <v>1.001297717252395</v>
       </c>
       <c r="E23">
-        <v>1.048651942932874</v>
+        <v>0.9963585730350731</v>
       </c>
       <c r="F23">
-        <v>1.055520362296188</v>
+        <v>1.000652328714549</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035247145238761</v>
+        <v>1.03725671272872</v>
       </c>
       <c r="J23">
-        <v>1.041831648160201</v>
+        <v>1.008388015386736</v>
       </c>
       <c r="K23">
-        <v>1.041478251535379</v>
+        <v>1.016531293319754</v>
       </c>
       <c r="L23">
-        <v>1.052245476778867</v>
+        <v>1.011688021068975</v>
       </c>
       <c r="M23">
-        <v>1.05908874461822</v>
+        <v>1.01589836176174</v>
       </c>
       <c r="N23">
-        <v>1.043311168600349</v>
+        <v>1.009820042032308</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.036784210112298</v>
+        <v>0.9862645163451563</v>
       </c>
       <c r="D24">
-        <v>1.039078901101313</v>
+        <v>1.00781938758873</v>
       </c>
       <c r="E24">
-        <v>1.050283251385533</v>
+        <v>1.004642768785916</v>
       </c>
       <c r="F24">
-        <v>1.057247414240238</v>
+        <v>1.009401531715857</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035573859763893</v>
+        <v>1.039613874777984</v>
       </c>
       <c r="J24">
-        <v>1.042968492610947</v>
+        <v>1.014301750720132</v>
       </c>
       <c r="K24">
-        <v>1.042438253252106</v>
+        <v>1.021710563552411</v>
       </c>
       <c r="L24">
-        <v>1.053604214352312</v>
+        <v>1.018588839826395</v>
       </c>
       <c r="M24">
-        <v>1.060544966401436</v>
+        <v>1.023265533264301</v>
       </c>
       <c r="N24">
-        <v>1.044449627500613</v>
+        <v>1.015742175548191</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.038710406081347</v>
+        <v>0.9961854954790378</v>
       </c>
       <c r="D25">
-        <v>1.040510822535422</v>
+        <v>1.015058868289052</v>
       </c>
       <c r="E25">
-        <v>1.052178453968251</v>
+        <v>1.013847246779154</v>
       </c>
       <c r="F25">
-        <v>1.059253908315233</v>
+        <v>1.019121402378859</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035946615681246</v>
+        <v>1.042178407993357</v>
       </c>
       <c r="J25">
-        <v>1.044285745650272</v>
+        <v>1.020841918391399</v>
       </c>
       <c r="K25">
-        <v>1.043548620268348</v>
+        <v>1.027427827373916</v>
       </c>
       <c r="L25">
-        <v>1.055180384670186</v>
+        <v>1.026234338919774</v>
       </c>
       <c r="M25">
-        <v>1.062234508083593</v>
+        <v>1.031429961653444</v>
       </c>
       <c r="N25">
-        <v>1.045768751190344</v>
+        <v>1.022291631007719</v>
       </c>
     </row>
   </sheetData>
